--- a/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
+++ b/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
@@ -1,37 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\InputData\bldgs\BFoCSbQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\BFoCSbQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_EA54F47B11CE77AD595579207F432985CCB4FBBA" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20115" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="BFoCSbQL-residential" sheetId="3" r:id="rId3"/>
-    <sheet name="BFoCSbQL-commercial" sheetId="4" r:id="rId4"/>
+    <sheet name="BFoCSbQL-urban-residential" sheetId="3" r:id="rId3"/>
+    <sheet name="BFoCSbQL-rural-residential" sheetId="5" r:id="rId4"/>
+    <sheet name="BFoCSbQL-commercial" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
   <si>
     <t>Source:</t>
   </si>
@@ -234,9 +226,6 @@
     <t>heating</t>
   </si>
   <si>
-    <t>Building component</t>
-  </si>
-  <si>
     <t>envelope</t>
   </si>
   <si>
@@ -265,12 +254,24 @@
   </si>
   <si>
     <t>See next tab for table numbers and links</t>
+  </si>
+  <si>
+    <t>For the U.S., we use the same fractions for urban residential and rural residential.</t>
+  </si>
+  <si>
+    <t>Dimensionless fraction of total components</t>
+  </si>
+  <si>
+    <t>This variable captures what BAU fraction of new building components qualify</t>
+  </si>
+  <si>
+    <t>for energy efficient rebates.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -349,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -376,6 +377,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -470,23 +475,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -522,23 +510,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -714,10 +685,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -745,32 +718,47 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>73</v>
+      <c r="A9" s="17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>74</v>
+      <c r="A10" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -780,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -814,7 +802,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1406,33 +1394,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="F13" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="F14" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="F9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="F10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="F11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="F15" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="F16" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="F17:F18" r:id="rId10" display="http://buildingsdatabook.eren.doe.gov/docs/xls_pdf/9.1.8.xlsx" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="F19" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="F27" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="F28:F31" r:id="rId13" display="http://buildingsdatabook.eren.doe.gov/docs/xls_pdf/9.1.13.xlsx" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="F20" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="F21" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="F25" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="F26" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="F22" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="F23" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="F24" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="F12" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+    <hyperlink ref="F13" r:id="rId3"/>
+    <hyperlink ref="F14" r:id="rId4"/>
+    <hyperlink ref="F9" r:id="rId5"/>
+    <hyperlink ref="F10" r:id="rId6"/>
+    <hyperlink ref="F11" r:id="rId7"/>
+    <hyperlink ref="F15" r:id="rId8"/>
+    <hyperlink ref="F16" r:id="rId9"/>
+    <hyperlink ref="F17:F18" r:id="rId10" display="http://buildingsdatabook.eren.doe.gov/docs/xls_pdf/9.1.8.xlsx"/>
+    <hyperlink ref="F19" r:id="rId11"/>
+    <hyperlink ref="F27" r:id="rId12"/>
+    <hyperlink ref="F28:F31" r:id="rId13" display="http://buildingsdatabook.eren.doe.gov/docs/xls_pdf/9.1.13.xlsx"/>
+    <hyperlink ref="F20" r:id="rId14"/>
+    <hyperlink ref="F21" r:id="rId15"/>
+    <hyperlink ref="F25" r:id="rId16"/>
+    <hyperlink ref="F26" r:id="rId17"/>
+    <hyperlink ref="F22" r:id="rId18"/>
+    <hyperlink ref="F23" r:id="rId19"/>
+    <hyperlink ref="F24" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1447,15 +1435,15 @@
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>67</v>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1486,7 +1474,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="15">
         <f t="shared" si="0"/>
@@ -1546,7 +1534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1561,15 +1549,15 @@
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>67</v>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1600,7 +1588,118 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="15">
+        <f t="shared" si="0"/>
+        <v>0.56609034267912772</v>
+      </c>
+      <c r="C4" s="15">
+        <f>AVERAGE(C2:C3)</f>
+        <v>0.43390965732087228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="C5">
+        <f>Data!D15</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.32982758620689656</v>
+      </c>
+      <c r="C6" s="11">
+        <f>SUMPRODUCT(Data!C16:C18,Data!D16:D18)/SUM(Data!C16:C18)</f>
+        <v>0.67017241379310344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48876582108507738</v>
+      </c>
+      <c r="C7" s="11">
+        <f>SUMPRODUCT(Data!C27:C31,Data!D27:D31)/SUM(Data!C27:C31)</f>
+        <v>0.51123417891492262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>68</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="11">
+        <f>1-C2</f>
+        <v>0.40218068535825546</v>
+      </c>
+      <c r="C2" s="11">
+        <f>SUMPRODUCT(Data!C8:C11,Data!D8:D11)/SUM(Data!C8:C11)</f>
+        <v>0.59781931464174454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="11">
+        <f t="shared" ref="B3:B7" si="0">1-C3</f>
+        <v>0.73</v>
+      </c>
+      <c r="C3">
+        <f>Data!D12</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
       </c>
       <c r="B4" s="15">
         <f t="shared" si="0"/>
@@ -1660,24 +1759,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1911,32 +1992,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29AC3110-15A0-42F8-BFBF-C6B08135034A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6E91C74-9B18-45CD-8658-7A389320A66C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5E7AE60-E722-4B4C-88AD-42B95BB92917}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F7D8A9-DE15-489A-804B-F206A764DFB7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{524E6AC6-2014-4042-A526-004E62CAFCF3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A84EEE9-9EE6-47A2-9965-D121252C6269}"/>
 </file>